--- a/role.xlsx
+++ b/role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mju-my.sharepoint.com/personal/kakao0228_mju_ac_kr/Documents/명지대/2학년2학기/directory/wep/WebNom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsh09\OneDrive\바탕 화면\WebNom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{7BC54AE7-9805-46BB-AD1B-5E84B4556E37}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DAF166-8583-4B9F-B5BA-0642A28A8F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{12439C95-A856-4748-97CA-FA3DD03FB4C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12439C95-A856-4748-97CA-FA3DD03FB4C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,13 +444,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -474,7 +474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -506,6 +506,64 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Owner xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <FolderType xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Teachers xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Templates xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <AppVersion xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Math_Settings xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <TeamsChannelId xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Invited_Students xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <CultureName xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Student_Groups xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <DefaultSectionNames xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+    <Invited_Teachers xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100E406462A1FB221418D9246E53BB5EFBE" ma:contentTypeVersion="25" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="a18b6d8fa6851d5817c638dd189f4d53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="50d9a5d2-7b8a-4952-bec4-289b237b867a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="047d10981cc61c14f413eea4898a3a41" ns3:_="">
     <xsd:import namespace="50d9a5d2-7b8a-4952-bec4-289b237b867a"/>
@@ -841,65 +899,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7713B3C5-B313-431C-A6CA-8B72BAD9DD20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="50d9a5d2-7b8a-4952-bec4-289b237b867a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Owner xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <FolderType xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Teachers xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Templates xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <AppVersion xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Math_Settings xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <TeamsChannelId xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Invited_Students xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <CultureName xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Student_Groups xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <DefaultSectionNames xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-    <Invited_Teachers xmlns="50d9a5d2-7b8a-4952-bec4-289b237b867a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AFDC8F0-B50E-4CC9-9A78-BD58C110E35F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19812180-1133-42F9-8EA0-510A0E85E3C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -915,22 +933,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AFDC8F0-B50E-4CC9-9A78-BD58C110E35F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7713B3C5-B313-431C-A6CA-8B72BAD9DD20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="50d9a5d2-7b8a-4952-bec4-289b237b867a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>